--- a/titlePilotStudy/data/DEU.xlsx
+++ b/titlePilotStudy/data/DEU.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="601">
   <si>
     <t>Identifier</t>
   </si>
@@ -2478,78 +2478,6 @@
   </si>
   <si>
     <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>T18</t>
-  </si>
-  <si>
-    <t>T19</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>T24</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
-    <t>T26</t>
-  </si>
-  <si>
-    <t>T27</t>
-  </si>
-  <si>
-    <t>T28</t>
   </si>
   <si>
     <t xml:space="preserve">? </t>
@@ -2743,7 +2671,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2840,9 +2768,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Akzent3" xfId="2" builtinId="38"/>
@@ -3127,15 +3059,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="9"/>
-    <col min="2" max="6" width="8.77734375" style="1"/>
+    <col min="2" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="8.77734375" style="42"/>
+    <col min="6" max="6" width="8.77734375" style="1"/>
     <col min="7" max="7" width="24.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
     <col min="9" max="11" width="8.77734375" style="1"/>
@@ -3183,7 +3117,7 @@
       <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="40" t="s">
         <v>576</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -3356,7 +3290,7 @@
       <c r="D2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="41">
         <v>1845</v>
       </c>
       <c r="F2" s="27" t="s">
@@ -3517,8 +3451,8 @@
       <c r="D3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>605</v>
+      <c r="E3">
+        <v>1863</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>577</v>
@@ -3656,7 +3590,7 @@
       <c r="D4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="41">
         <v>1859</v>
       </c>
       <c r="F4" s="27" t="s">
@@ -3799,8 +3733,8 @@
       <c r="D5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>605</v>
+      <c r="E5" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>577</v>
@@ -3948,7 +3882,7 @@
       <c r="D6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="41">
         <v>1855</v>
       </c>
       <c r="F6" s="27" t="s">
@@ -4091,7 +4025,7 @@
       <c r="D7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="41">
         <v>1957</v>
       </c>
       <c r="F7" s="27" t="s">
@@ -4232,7 +4166,7 @@
       <c r="D8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="41">
         <v>1841</v>
       </c>
       <c r="F8" s="27" t="s">
@@ -4371,8 +4305,8 @@
       <c r="D9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>605</v>
+      <c r="E9" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>577</v>
@@ -4510,7 +4444,7 @@
       <c r="D10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="41">
         <v>1859</v>
       </c>
       <c r="F10" s="27" t="s">
@@ -4663,7 +4597,7 @@
       <c r="D11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="41">
         <v>1848</v>
       </c>
       <c r="F11" s="27" t="s">
@@ -4802,7 +4736,7 @@
       <c r="D12" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="41">
         <v>1847</v>
       </c>
       <c r="F12" s="27" t="s">
@@ -4941,7 +4875,7 @@
       <c r="D13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="41">
         <v>1856</v>
       </c>
       <c r="F13" s="27" t="s">
@@ -5077,7 +5011,7 @@
       <c r="D14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="41">
         <v>1840</v>
       </c>
       <c r="F14" s="27" t="s">
@@ -5213,7 +5147,7 @@
       <c r="D15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="41">
         <v>1840</v>
       </c>
       <c r="F15" s="27" t="s">
@@ -5349,7 +5283,7 @@
       <c r="D16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="41">
         <v>1846</v>
       </c>
       <c r="F16" s="27" t="s">
@@ -5508,7 +5442,7 @@
       <c r="D17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="41">
         <v>1843</v>
       </c>
       <c r="F17" s="27" t="s">
@@ -5648,7 +5582,7 @@
       <c r="D18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="41">
         <v>1845</v>
       </c>
       <c r="F18" s="27" t="s">
@@ -5789,7 +5723,7 @@
       <c r="D19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="41">
         <v>1846</v>
       </c>
       <c r="F19" s="27" t="s">
@@ -5925,7 +5859,7 @@
       <c r="D20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="41">
         <v>1846</v>
       </c>
       <c r="F20" s="27" t="s">
@@ -6066,7 +6000,7 @@
       <c r="D21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="41">
         <v>1843</v>
       </c>
       <c r="F21" s="27" t="s">
@@ -6202,7 +6136,7 @@
       <c r="D22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="41">
         <v>1844</v>
       </c>
       <c r="F22" s="27" t="s">
@@ -6367,7 +6301,7 @@
       <c r="D23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="41">
         <v>1841</v>
       </c>
       <c r="F23" s="27" t="s">
@@ -6503,8 +6437,8 @@
       <c r="D24" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>606</v>
+      <c r="E24" s="41" t="s">
+        <v>582</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>577</v>
@@ -6646,8 +6580,8 @@
       <c r="D25" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>605</v>
+      <c r="E25" s="41">
+        <v>1855</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>577</v>
@@ -6801,8 +6735,8 @@
       <c r="D26" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>605</v>
+      <c r="E26" s="41">
+        <v>1870</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>578</v>
@@ -6952,11 +6886,11 @@
       <c r="D27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="41">
         <v>1876</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>102</v>
@@ -7093,9 +7027,9 @@
       <c r="D28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="27" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G28" s="27" t="s">
         <v>521</v>
@@ -7219,7 +7153,7 @@
       <c r="BD28" s="29"/>
       <c r="BE28" s="29"/>
     </row>
-    <row r="29" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>106</v>
       </c>
@@ -7232,11 +7166,11 @@
       <c r="D29" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>607</v>
+      <c r="E29" s="41" t="s">
+        <v>583</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G29" s="27" t="s">
         <v>522</v>
@@ -7379,11 +7313,11 @@
       <c r="D30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>608</v>
+      <c r="E30" s="41" t="s">
+        <v>584</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G30" s="27" t="s">
         <v>523</v>
@@ -7520,11 +7454,11 @@
       <c r="D31" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="41">
         <v>1874</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>524</v>
@@ -7661,11 +7595,11 @@
       <c r="D32" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="41">
         <v>1855</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G32" s="27" t="s">
         <v>112</v>
@@ -7802,11 +7736,11 @@
       <c r="D33" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="27" t="s">
-        <v>605</v>
+      <c r="E33" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>525</v>
@@ -7940,7 +7874,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="34" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>114</v>
       </c>
@@ -7953,11 +7887,11 @@
       <c r="D34" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>609</v>
+      <c r="E34" s="41" t="s">
+        <v>585</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G34" s="27" t="s">
         <v>526</v>
@@ -8100,11 +8034,11 @@
       <c r="D35" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>610</v>
+      <c r="E35" s="41" t="s">
+        <v>586</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="G35" s="27" t="s">
         <v>527</v>
@@ -8236,11 +8170,11 @@
       <c r="D36" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>611</v>
+      <c r="E36" s="41" t="s">
+        <v>587</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G36" s="27" t="s">
         <v>119</v>
@@ -8372,11 +8306,11 @@
       <c r="D37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>612</v>
+      <c r="E37" s="41" t="s">
+        <v>588</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="G37" s="27" t="s">
         <v>528</v>
@@ -8513,11 +8447,11 @@
       <c r="D38" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="41">
         <v>1861</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G38" s="27" t="s">
         <v>529</v>
@@ -8654,11 +8588,11 @@
       <c r="D39" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>613</v>
+      <c r="E39" s="41" t="s">
+        <v>589</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="G39" s="27" t="s">
         <v>125</v>
@@ -8790,11 +8724,11 @@
       <c r="D40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="41">
         <v>1868</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G40" s="27" t="s">
         <v>127</v>
@@ -8926,11 +8860,11 @@
       <c r="D41" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="41">
         <v>1865</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>530</v>
@@ -9075,11 +9009,11 @@
       <c r="D42" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="41">
         <v>1869</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G42" s="27" t="s">
         <v>131</v>
@@ -9226,11 +9160,11 @@
       <c r="D43" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="41">
         <v>1876</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>531</v>
@@ -9367,11 +9301,11 @@
       <c r="D44" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>614</v>
+      <c r="E44" s="41" t="s">
+        <v>590</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>135</v>
@@ -9503,11 +9437,11 @@
       <c r="D45" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="41">
         <v>1879</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>532</v>
@@ -9654,11 +9588,11 @@
       <c r="D46" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="41">
         <v>1862</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="G46" s="27" t="s">
         <v>138</v>
@@ -9790,11 +9724,11 @@
       <c r="D47" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>615</v>
+      <c r="E47" s="41" t="s">
+        <v>591</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="G47" s="27" t="s">
         <v>533</v>
@@ -9931,9 +9865,9 @@
       <c r="D48" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="27"/>
+      <c r="E48" s="41"/>
       <c r="F48" s="27" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="G48" s="27" t="s">
         <v>534</v>
@@ -10076,11 +10010,11 @@
       <c r="D49" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="41">
         <v>1867</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="G49" s="27" t="s">
         <v>143</v>
@@ -10225,7 +10159,7 @@
       <c r="BD49" s="29"/>
       <c r="BE49" s="29"/>
     </row>
-    <row r="50" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>144</v>
       </c>
@@ -10238,8 +10172,8 @@
       <c r="D50" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>616</v>
+      <c r="E50" s="41" t="s">
+        <v>592</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>579</v>
@@ -10374,11 +10308,11 @@
       <c r="D51" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="41">
         <v>1880</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>147</v>
@@ -10527,11 +10461,11 @@
       <c r="D52" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>617</v>
+      <c r="E52" s="41" t="s">
+        <v>593</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G52" s="27" t="s">
         <v>535</v>
@@ -10682,11 +10616,11 @@
       <c r="D53" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="41">
         <v>1898</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G53" s="27" t="s">
         <v>536</v>
@@ -10827,11 +10761,11 @@
       <c r="D54" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="41">
         <v>1890</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>537</v>
@@ -10970,11 +10904,11 @@
       <c r="D55" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="41">
         <v>1889</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>538</v>
@@ -11111,11 +11045,11 @@
       <c r="D56" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="41">
         <v>1896</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G56" s="27" t="s">
         <v>539</v>
@@ -11264,11 +11198,11 @@
       <c r="D57" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>618</v>
+      <c r="E57" s="41" t="s">
+        <v>594</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>159</v>
@@ -11412,11 +11346,11 @@
       <c r="D58" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>619</v>
+      <c r="E58" s="41" t="s">
+        <v>595</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G58" s="27" t="s">
         <v>161</v>
@@ -11548,11 +11482,11 @@
       <c r="D59" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="41">
         <v>1897</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G59" s="27" t="s">
         <v>163</v>
@@ -11721,11 +11655,11 @@
       <c r="D60" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="41">
         <v>1888</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="G60" s="27" t="s">
         <v>540</v>
@@ -11894,11 +11828,11 @@
       <c r="D61" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="41">
         <v>1895</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G61" s="27" t="s">
         <v>541</v>
@@ -12043,11 +11977,11 @@
       <c r="D62" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="41">
         <v>1894</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="G62" s="27" t="s">
         <v>542</v>
@@ -12214,11 +12148,11 @@
       <c r="D63" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="41">
         <v>1892</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G63" s="27" t="s">
         <v>171</v>
@@ -12385,11 +12319,11 @@
       <c r="D64" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E64" s="41">
         <v>1897</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="G64" s="27" t="s">
         <v>543</v>
@@ -12556,11 +12490,11 @@
       <c r="D65" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="27" t="s">
-        <v>620</v>
+      <c r="E65" s="41" t="s">
+        <v>596</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G65" s="27" t="s">
         <v>544</v>
@@ -12729,11 +12663,11 @@
       <c r="D66" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E66" s="41">
         <v>1895</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="G66" s="27" t="s">
         <v>545</v>
@@ -12902,11 +12836,11 @@
       <c r="D67" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="41">
         <v>1898</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="G67" s="27" t="s">
         <v>546</v>
@@ -13075,11 +13009,11 @@
       <c r="D68" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="27" t="s">
-        <v>605</v>
+      <c r="E68" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="G68" s="27" t="s">
         <v>547</v>
@@ -13248,11 +13182,11 @@
       <c r="D69" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="41">
         <v>1882</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="G69" s="27" t="s">
         <v>548</v>
@@ -13421,11 +13355,11 @@
       <c r="D70" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E70" s="41">
         <v>1886</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="G70" s="27" t="s">
         <v>549</v>
@@ -13564,11 +13498,11 @@
       <c r="D71" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="41">
         <v>1887</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>550</v>
@@ -13707,11 +13641,11 @@
       <c r="D72" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="41">
         <v>1899</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="G72" s="27" t="s">
         <v>551</v>
@@ -13854,11 +13788,11 @@
       <c r="D73" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E73" s="41">
         <v>1889</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="G73" s="27" t="s">
         <v>552</v>
@@ -13997,11 +13931,11 @@
       <c r="D74" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E74" s="41">
         <v>1896</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="G74" s="27" t="s">
         <v>553</v>
@@ -14138,8 +14072,8 @@
       <c r="D75" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="40">
-        <v>2831</v>
+      <c r="E75" s="41">
+        <v>1907</v>
       </c>
       <c r="F75" s="27" t="s">
         <v>580</v>
@@ -14297,11 +14231,11 @@
       <c r="D76" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="27">
+      <c r="E76" s="41">
         <v>1903</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>191</v>
@@ -14433,11 +14367,11 @@
       <c r="D77" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="27">
+      <c r="E77" s="41">
         <v>1919</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G77" s="27" t="s">
         <v>194</v>
@@ -14569,11 +14503,11 @@
       <c r="D78" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="27">
+      <c r="E78" s="41">
         <v>1910</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G78" s="27" t="s">
         <v>197</v>
@@ -14714,11 +14648,11 @@
       <c r="D79" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="27">
+      <c r="E79" s="41">
         <v>1907</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G79" s="27" t="s">
         <v>200</v>
@@ -14850,11 +14784,11 @@
       <c r="D80" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="27" t="s">
-        <v>605</v>
+      <c r="E80" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>555</v>
@@ -15003,11 +14937,11 @@
       <c r="D81" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E81" s="41">
         <v>1915</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G81" s="27" t="s">
         <v>204</v>
@@ -15139,11 +15073,11 @@
       <c r="D82" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E82" s="27" t="s">
-        <v>621</v>
+      <c r="E82" s="41" t="s">
+        <v>597</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>207</v>
@@ -15275,11 +15209,11 @@
       <c r="D83" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E83" s="27">
+      <c r="E83" s="41">
         <v>1909</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G83" s="27" t="s">
         <v>556</v>
@@ -15446,11 +15380,11 @@
       <c r="D84" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E84" s="41">
         <v>1914</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>557</v>
@@ -15601,11 +15535,11 @@
       <c r="D85" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E85" s="27">
+      <c r="E85" s="41">
         <v>1905</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G85" s="27" t="s">
         <v>212</v>
@@ -15737,11 +15671,11 @@
       <c r="D86" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="27" t="s">
-        <v>622</v>
+      <c r="E86" s="41" t="s">
+        <v>598</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>215</v>
@@ -15875,11 +15809,11 @@
       <c r="D87" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="27" t="s">
-        <v>623</v>
+      <c r="E87" s="41" t="s">
+        <v>599</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G87" s="27" t="s">
         <v>218</v>
@@ -16017,11 +15951,11 @@
       <c r="D88" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E88" s="41">
         <v>1909</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>558</v>
@@ -16188,11 +16122,11 @@
       <c r="D89" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E89" s="27">
+      <c r="E89" s="41">
         <v>1912</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>559</v>
@@ -16361,11 +16295,11 @@
       <c r="D90" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="27">
+      <c r="E90" s="41">
         <v>1918</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="G90" s="27" t="s">
         <v>560</v>
@@ -16534,11 +16468,11 @@
       <c r="D91" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E91" s="27" t="s">
-        <v>605</v>
+      <c r="E91" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>225</v>
@@ -16705,11 +16639,11 @@
       <c r="D92" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="27">
+      <c r="E92" s="41">
         <v>1920</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>228</v>
@@ -16855,11 +16789,11 @@
       <c r="D93" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="27" t="s">
-        <v>624</v>
+      <c r="E93" s="41" t="s">
+        <v>600</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>231</v>
@@ -17020,11 +16954,11 @@
       <c r="D94" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E94" s="27">
+      <c r="E94" s="41">
         <v>1918</v>
       </c>
       <c r="F94" s="27" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>561</v>
@@ -17191,11 +17125,11 @@
       <c r="D95" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E95" s="27">
+      <c r="E95" s="41">
         <v>1915</v>
       </c>
       <c r="F95" s="27" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>562</v>
@@ -17334,11 +17268,11 @@
       <c r="D96" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E96" s="27">
+      <c r="E96" s="41">
         <v>1911</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="G96" s="27" t="s">
         <v>563</v>
@@ -17479,11 +17413,11 @@
       <c r="D97" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="27">
+      <c r="E97" s="41">
         <v>1913</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="G97" s="27" t="s">
         <v>564</v>
@@ -17640,11 +17574,11 @@
       <c r="D98" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E98" s="27">
+      <c r="E98" s="41">
         <v>1914</v>
       </c>
       <c r="F98" s="27" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="G98" s="27" t="s">
         <v>239</v>
@@ -17782,11 +17716,11 @@
       <c r="D99" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E99" s="27" t="s">
-        <v>605</v>
+      <c r="E99" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>241</v>
@@ -23938,6 +23872,9 @@
       <c r="AB322" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:BE99">
+    <sortCondition ref="A2:A99"/>
+  </sortState>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
       <formula1>"interpunc,word,mixed,no"</formula1>

--- a/titlePilotStudy/data/DEU.xlsx
+++ b/titlePilotStudy/data/DEU.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="602">
   <si>
     <t>Identifier</t>
   </si>
@@ -2538,6 +2538,9 @@
   </si>
   <si>
     <t xml:space="preserve">Januar–Juni 1908 </t>
+  </si>
+  <si>
+    <t>otherII</t>
   </si>
 </sst>
 </file>
@@ -3057,11 +3060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE322"/>
+  <dimension ref="A1:BF322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE2" sqref="BE2"/>
+      <selection pane="bottomLeft" activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3075,36 +3078,36 @@
     <col min="9" max="11" width="8.77734375" style="1"/>
     <col min="12" max="12" width="16" style="1" customWidth="1"/>
     <col min="13" max="21" width="8.77734375" style="1"/>
-    <col min="22" max="22" width="8.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.77734375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.77734375" style="39" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.77734375" style="1"/>
-    <col min="30" max="30" width="12.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="12.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.44140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9" style="1" customWidth="1"/>
-    <col min="36" max="37" width="8.77734375" style="1"/>
-    <col min="38" max="38" width="11.77734375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="18.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="8.77734375" style="1"/>
-    <col min="41" max="41" width="13.33203125" style="14" customWidth="1"/>
-    <col min="42" max="42" width="8.77734375" style="14"/>
-    <col min="43" max="49" width="8.77734375" style="1"/>
-    <col min="50" max="50" width="8.77734375" style="36"/>
-    <col min="51" max="52" width="8.77734375" style="1"/>
-    <col min="53" max="53" width="8.77734375" style="39"/>
-    <col min="54" max="56" width="8.77734375" style="1"/>
-    <col min="57" max="57" width="41.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="26" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.77734375" style="39" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="11.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="12.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="37" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="11.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="18.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="0" style="14" hidden="1" customWidth="1"/>
+    <col min="43" max="49" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="30.21875" style="36" customWidth="1"/>
+    <col min="51" max="52" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="0" style="39" hidden="1" customWidth="1"/>
+    <col min="54" max="56" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="41.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="58" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3276,8 +3279,11 @@
       <c r="BE1" s="11" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="2" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF1" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>38</v>
       </c>
@@ -3437,8 +3443,11 @@
       <c r="BE2" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="3" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF2" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3585,11 @@
       <c r="BC3" s="29"/>
       <c r="BD3" s="29"/>
       <c r="BE3" s="29"/>
-    </row>
-    <row r="4" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>47</v>
       </c>
@@ -3719,8 +3731,11 @@
       <c r="BE4" s="29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF4" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>49</v>
       </c>
@@ -3868,8 +3883,11 @@
       <c r="BE5" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="6" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF5" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>52</v>
       </c>
@@ -4011,8 +4029,11 @@
       <c r="BE6" s="3" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF6" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>55</v>
       </c>
@@ -4152,8 +4173,11 @@
       <c r="BC7" s="29"/>
       <c r="BD7" s="29"/>
       <c r="BE7" s="29"/>
-    </row>
-    <row r="8" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF7" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>58</v>
       </c>
@@ -4291,8 +4315,11 @@
       <c r="BC8" s="29"/>
       <c r="BD8" s="29"/>
       <c r="BE8" s="29"/>
-    </row>
-    <row r="9" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF8" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>61</v>
       </c>
@@ -4430,8 +4457,11 @@
       <c r="BC9" s="29"/>
       <c r="BD9" s="29"/>
       <c r="BE9" s="29"/>
-    </row>
-    <row r="10" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF9" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>64</v>
       </c>
@@ -4583,8 +4613,11 @@
       <c r="BE10" s="29" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="11" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF10" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>65</v>
       </c>
@@ -4722,8 +4755,11 @@
       <c r="BC11" s="29"/>
       <c r="BD11" s="29"/>
       <c r="BE11" s="29"/>
-    </row>
-    <row r="12" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF11" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>68</v>
       </c>
@@ -4861,8 +4897,11 @@
       <c r="BC12" s="29"/>
       <c r="BD12" s="29"/>
       <c r="BE12" s="29"/>
-    </row>
-    <row r="13" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF12" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>70</v>
       </c>
@@ -4997,8 +5036,11 @@
       <c r="BC13" s="29"/>
       <c r="BD13" s="29"/>
       <c r="BE13" s="29"/>
-    </row>
-    <row r="14" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF13" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>72</v>
       </c>
@@ -5133,8 +5175,11 @@
       <c r="BC14" s="29"/>
       <c r="BD14" s="29"/>
       <c r="BE14" s="29"/>
-    </row>
-    <row r="15" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF14" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>75</v>
       </c>
@@ -5269,8 +5314,11 @@
       <c r="BC15" s="29"/>
       <c r="BD15" s="29"/>
       <c r="BE15" s="29"/>
-    </row>
-    <row r="16" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF15" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>78</v>
       </c>
@@ -5428,8 +5476,11 @@
         <v>290</v>
       </c>
       <c r="BE16" s="29"/>
-    </row>
-    <row r="17" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF16" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>80</v>
       </c>
@@ -5568,8 +5619,11 @@
         <v>25</v>
       </c>
       <c r="BE17" s="29"/>
-    </row>
-    <row r="18" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF17" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>83</v>
       </c>
@@ -5709,8 +5763,11 @@
       <c r="BC18" s="29"/>
       <c r="BD18" s="29"/>
       <c r="BE18" s="29"/>
-    </row>
-    <row r="19" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF18" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -5845,8 +5902,11 @@
       <c r="BC19" s="29"/>
       <c r="BD19" s="29"/>
       <c r="BE19" s="29"/>
-    </row>
-    <row r="20" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF19" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>87</v>
       </c>
@@ -5986,8 +6046,11 @@
       <c r="BC20" s="29"/>
       <c r="BD20" s="29"/>
       <c r="BE20" s="29"/>
-    </row>
-    <row r="21" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF20" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>89</v>
       </c>
@@ -6122,8 +6185,11 @@
       <c r="BC21" s="29"/>
       <c r="BD21" s="29"/>
       <c r="BE21" s="29"/>
-    </row>
-    <row r="22" spans="1:57" ht="144" x14ac:dyDescent="0.3">
+      <c r="BF21" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>92</v>
       </c>
@@ -6287,8 +6353,11 @@
       <c r="BE22" s="19" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="23" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF22" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>93</v>
       </c>
@@ -6423,8 +6492,11 @@
       <c r="BC23" s="29"/>
       <c r="BD23" s="29"/>
       <c r="BE23" s="29"/>
-    </row>
-    <row r="24" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF23" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>95</v>
       </c>
@@ -6566,8 +6638,11 @@
       <c r="BE24" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="25" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF24" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>97</v>
       </c>
@@ -6721,8 +6796,11 @@
       <c r="BE25" s="29" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="26" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF25" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>99</v>
       </c>
@@ -6872,8 +6950,11 @@
       <c r="BE26" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="27" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF26" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>101</v>
       </c>
@@ -7013,8 +7094,11 @@
       <c r="BC27" s="29"/>
       <c r="BD27" s="29"/>
       <c r="BE27" s="29"/>
-    </row>
-    <row r="28" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF27" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>104</v>
       </c>
@@ -7152,8 +7236,11 @@
       <c r="BC28" s="29"/>
       <c r="BD28" s="29"/>
       <c r="BE28" s="29"/>
-    </row>
-    <row r="29" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF28" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>106</v>
       </c>
@@ -7299,8 +7386,11 @@
       <c r="BC29" s="29"/>
       <c r="BD29" s="29"/>
       <c r="BE29" s="29"/>
-    </row>
-    <row r="30" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF29" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>108</v>
       </c>
@@ -7440,8 +7530,11 @@
       <c r="BC30" s="29"/>
       <c r="BD30" s="29"/>
       <c r="BE30" s="29"/>
-    </row>
-    <row r="31" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF30" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>109</v>
       </c>
@@ -7581,8 +7674,11 @@
       <c r="BC31" s="29"/>
       <c r="BD31" s="29"/>
       <c r="BE31" s="29"/>
-    </row>
-    <row r="32" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF31" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>111</v>
       </c>
@@ -7722,8 +7818,11 @@
       <c r="BC32" s="29"/>
       <c r="BD32" s="29"/>
       <c r="BE32" s="3"/>
-    </row>
-    <row r="33" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF32" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>113</v>
       </c>
@@ -7873,8 +7972,11 @@
       <c r="BE33" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="34" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF33" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>114</v>
       </c>
@@ -8020,8 +8122,11 @@
       <c r="BC34" s="29"/>
       <c r="BD34" s="29"/>
       <c r="BE34" s="29"/>
-    </row>
-    <row r="35" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF34" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>116</v>
       </c>
@@ -8156,8 +8261,11 @@
       <c r="BC35" s="29"/>
       <c r="BD35" s="29"/>
       <c r="BE35" s="29"/>
-    </row>
-    <row r="36" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF35" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>118</v>
       </c>
@@ -8292,8 +8400,11 @@
       <c r="BC36" s="29"/>
       <c r="BD36" s="29"/>
       <c r="BE36" s="29"/>
-    </row>
-    <row r="37" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF36" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>121</v>
       </c>
@@ -8433,8 +8544,11 @@
       <c r="BC37" s="29"/>
       <c r="BD37" s="29"/>
       <c r="BE37" s="29"/>
-    </row>
-    <row r="38" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF37" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>122</v>
       </c>
@@ -8574,8 +8688,11 @@
       <c r="BC38" s="29"/>
       <c r="BD38" s="29"/>
       <c r="BE38" s="29"/>
-    </row>
-    <row r="39" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF38" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>124</v>
       </c>
@@ -8710,8 +8827,11 @@
       <c r="BC39" s="29"/>
       <c r="BD39" s="29"/>
       <c r="BE39" s="29"/>
-    </row>
-    <row r="40" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF39" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>126</v>
       </c>
@@ -8846,8 +8966,11 @@
       <c r="BC40" s="29"/>
       <c r="BD40" s="29"/>
       <c r="BE40" s="29"/>
-    </row>
-    <row r="41" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF40" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>128</v>
       </c>
@@ -8995,8 +9118,11 @@
       <c r="BC41" s="29"/>
       <c r="BD41" s="29"/>
       <c r="BE41" s="29"/>
-    </row>
-    <row r="42" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF41" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>130</v>
       </c>
@@ -9146,8 +9272,11 @@
         <v>25</v>
       </c>
       <c r="BE42" s="29"/>
-    </row>
-    <row r="43" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF42" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>132</v>
       </c>
@@ -9287,8 +9416,11 @@
       <c r="BC43" s="29"/>
       <c r="BD43" s="29"/>
       <c r="BE43" s="29"/>
-    </row>
-    <row r="44" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF43" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>134</v>
       </c>
@@ -9423,8 +9555,11 @@
       <c r="BC44" s="29"/>
       <c r="BD44" s="29"/>
       <c r="BE44" s="29"/>
-    </row>
-    <row r="45" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF44" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>136</v>
       </c>
@@ -9574,8 +9709,11 @@
         <v>25</v>
       </c>
       <c r="BE45" s="29"/>
-    </row>
-    <row r="46" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF45" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>137</v>
       </c>
@@ -9710,8 +9848,11 @@
       <c r="BC46" s="29"/>
       <c r="BD46" s="29"/>
       <c r="BE46" s="29"/>
-    </row>
-    <row r="47" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF46" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>139</v>
       </c>
@@ -9851,8 +9992,11 @@
       <c r="BC47" s="29"/>
       <c r="BD47" s="29"/>
       <c r="BE47" s="29"/>
-    </row>
-    <row r="48" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF47" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>141</v>
       </c>
@@ -9996,8 +10140,11 @@
       <c r="BC48" s="29"/>
       <c r="BD48" s="29"/>
       <c r="BE48" s="29"/>
-    </row>
-    <row r="49" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF48" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>142</v>
       </c>
@@ -10158,8 +10305,11 @@
       <c r="BC49" s="29"/>
       <c r="BD49" s="29"/>
       <c r="BE49" s="29"/>
-    </row>
-    <row r="50" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF49" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>144</v>
       </c>
@@ -10294,8 +10444,11 @@
       <c r="BC50" s="29"/>
       <c r="BD50" s="29"/>
       <c r="BE50" s="29"/>
-    </row>
-    <row r="51" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF50" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>146</v>
       </c>
@@ -10447,8 +10600,11 @@
         <v>25</v>
       </c>
       <c r="BE51" s="29"/>
-    </row>
-    <row r="52" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF51" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>149</v>
       </c>
@@ -10602,8 +10758,11 @@
       <c r="BC52" s="29"/>
       <c r="BD52" s="29"/>
       <c r="BE52" s="29"/>
-    </row>
-    <row r="53" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF52" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>150</v>
       </c>
@@ -10747,8 +10906,11 @@
       <c r="BE53" s="3" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="54" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF53" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>152</v>
       </c>
@@ -10890,8 +11052,11 @@
       <c r="BE54" s="3" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="55" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF54" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>154</v>
       </c>
@@ -11031,8 +11196,11 @@
       <c r="BC55" s="29"/>
       <c r="BD55" s="29"/>
       <c r="BE55" s="29"/>
-    </row>
-    <row r="56" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF55" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>156</v>
       </c>
@@ -11184,8 +11352,11 @@
         <v>25</v>
       </c>
       <c r="BE56" s="29"/>
-    </row>
-    <row r="57" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF56" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>158</v>
       </c>
@@ -11332,8 +11503,11 @@
       <c r="BC57" s="29"/>
       <c r="BD57" s="29"/>
       <c r="BE57" s="29"/>
-    </row>
-    <row r="58" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF57" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>160</v>
       </c>
@@ -11468,8 +11642,11 @@
       <c r="BC58" s="29"/>
       <c r="BD58" s="29"/>
       <c r="BE58" s="29"/>
-    </row>
-    <row r="59" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF58" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>162</v>
       </c>
@@ -11641,8 +11818,11 @@
       <c r="BE59" s="3" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="60" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF59" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>165</v>
       </c>
@@ -11814,8 +11994,11 @@
       <c r="BE60" s="29" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="61" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF60" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>167</v>
       </c>
@@ -11963,8 +12146,11 @@
       <c r="BE61" s="33" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="62" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF61" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>169</v>
       </c>
@@ -12134,8 +12320,11 @@
         <v>25</v>
       </c>
       <c r="BE62" s="29"/>
-    </row>
-    <row r="63" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF62" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>170</v>
       </c>
@@ -12305,8 +12494,11 @@
         <v>25</v>
       </c>
       <c r="BE63" s="29"/>
-    </row>
-    <row r="64" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF63" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>173</v>
       </c>
@@ -12476,8 +12668,11 @@
         <v>25</v>
       </c>
       <c r="BE64" s="29"/>
-    </row>
-    <row r="65" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF64" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>174</v>
       </c>
@@ -12649,8 +12844,11 @@
       <c r="BE65" s="29" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="66" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF65" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>175</v>
       </c>
@@ -12822,8 +13020,11 @@
       <c r="BE66" s="33" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="67" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF66" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>177</v>
       </c>
@@ -12995,8 +13196,11 @@
       <c r="BE67" s="33" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="68" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF67" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>179</v>
       </c>
@@ -13168,8 +13372,11 @@
       <c r="BE68" s="25" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="69" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF68" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>181</v>
       </c>
@@ -13341,8 +13548,11 @@
       <c r="BE69" s="29" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="70" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF69" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>182</v>
       </c>
@@ -13484,8 +13694,11 @@
       <c r="BE70" s="33" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="71" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF70" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>183</v>
       </c>
@@ -13627,8 +13840,11 @@
       <c r="BE71" s="33" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="72" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF71" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>184</v>
       </c>
@@ -13774,8 +13990,11 @@
       <c r="BC72" s="29"/>
       <c r="BD72" s="29"/>
       <c r="BE72" s="29"/>
-    </row>
-    <row r="73" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF72" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>185</v>
       </c>
@@ -13917,8 +14136,11 @@
       <c r="BE73" s="33" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="74" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF73" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>187</v>
       </c>
@@ -14058,8 +14280,11 @@
       <c r="BC74" s="29"/>
       <c r="BD74" s="29"/>
       <c r="BE74" s="29"/>
-    </row>
-    <row r="75" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF74" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>188</v>
       </c>
@@ -14217,8 +14442,11 @@
       <c r="BC75" s="29"/>
       <c r="BD75" s="29"/>
       <c r="BE75" s="29"/>
-    </row>
-    <row r="76" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF75" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>190</v>
       </c>
@@ -14353,8 +14581,11 @@
       <c r="BC76" s="29"/>
       <c r="BD76" s="29"/>
       <c r="BE76" s="29"/>
-    </row>
-    <row r="77" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF76" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>193</v>
       </c>
@@ -14489,8 +14720,11 @@
       <c r="BC77" s="29"/>
       <c r="BD77" s="29"/>
       <c r="BE77" s="29"/>
-    </row>
-    <row r="78" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF77" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>196</v>
       </c>
@@ -14634,8 +14868,11 @@
         <v>25</v>
       </c>
       <c r="BE78" s="29"/>
-    </row>
-    <row r="79" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF78" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>199</v>
       </c>
@@ -14770,8 +15007,11 @@
       <c r="BC79" s="29"/>
       <c r="BD79" s="29"/>
       <c r="BE79" s="29"/>
-    </row>
-    <row r="80" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF79" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
         <v>202</v>
       </c>
@@ -14923,8 +15163,11 @@
       <c r="BC80" s="29"/>
       <c r="BD80" s="29"/>
       <c r="BE80" s="29"/>
-    </row>
-    <row r="81" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF80" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>203</v>
       </c>
@@ -15059,8 +15302,11 @@
       <c r="BC81" s="29"/>
       <c r="BD81" s="29"/>
       <c r="BE81" s="29"/>
-    </row>
-    <row r="82" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF81" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>206</v>
       </c>
@@ -15195,8 +15441,11 @@
       <c r="BC82" s="29"/>
       <c r="BD82" s="29"/>
       <c r="BE82" s="29"/>
-    </row>
-    <row r="83" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF82" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>209</v>
       </c>
@@ -15366,8 +15615,11 @@
         <v>25</v>
       </c>
       <c r="BE83" s="29"/>
-    </row>
-    <row r="84" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF83" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>210</v>
       </c>
@@ -15521,8 +15773,11 @@
         <v>25</v>
       </c>
       <c r="BE84" s="29"/>
-    </row>
-    <row r="85" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF84" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>211</v>
       </c>
@@ -15657,8 +15912,11 @@
       <c r="BC85" s="29"/>
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
-    </row>
-    <row r="86" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF85" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>214</v>
       </c>
@@ -15795,8 +16053,11 @@
       <c r="BE86" s="33" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="87" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF86" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>217</v>
       </c>
@@ -15937,8 +16198,11 @@
       <c r="BC87" s="29"/>
       <c r="BD87" s="29"/>
       <c r="BE87" s="29"/>
-    </row>
-    <row r="88" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF87" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>219</v>
       </c>
@@ -16108,8 +16372,11 @@
         <v>25</v>
       </c>
       <c r="BE88" s="29"/>
-    </row>
-    <row r="89" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF88" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>221</v>
       </c>
@@ -16281,8 +16548,11 @@
       <c r="BE89" s="33" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="90" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF89" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>222</v>
       </c>
@@ -16454,8 +16724,11 @@
       <c r="BE90" s="33" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="91" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF90" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>224</v>
       </c>
@@ -16625,8 +16898,11 @@
         <v>25</v>
       </c>
       <c r="BE91" s="29"/>
-    </row>
-    <row r="92" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF91" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>227</v>
       </c>
@@ -16775,8 +17051,11 @@
       <c r="BC92" s="29"/>
       <c r="BD92" s="29"/>
       <c r="BE92" s="29"/>
-    </row>
-    <row r="93" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF92" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>230</v>
       </c>
@@ -16940,8 +17219,11 @@
         <v>25</v>
       </c>
       <c r="BE93" s="29"/>
-    </row>
-    <row r="94" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF93" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>232</v>
       </c>
@@ -17111,8 +17393,11 @@
         <v>25</v>
       </c>
       <c r="BE94" s="29"/>
-    </row>
-    <row r="95" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF94" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>234</v>
       </c>
@@ -17254,8 +17539,11 @@
       <c r="BE95" s="33" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="96" spans="1:57" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BF95" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
         <v>236</v>
       </c>
@@ -17399,8 +17687,11 @@
       <c r="BE96" s="33" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="97" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF96" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
         <v>237</v>
       </c>
@@ -17560,8 +17851,11 @@
       <c r="BE97" s="33" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="98" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BF97" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
         <v>238</v>
       </c>
@@ -17702,8 +17996,11 @@
         <v>25</v>
       </c>
       <c r="BE98" s="29"/>
-    </row>
-    <row r="99" spans="1:57" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BF98" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>240</v>
       </c>
@@ -17849,8 +18146,11 @@
         <v>25</v>
       </c>
       <c r="BE99" s="29"/>
-    </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF99" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -17877,7 +18177,7 @@
       <c r="AA100" s="38"/>
       <c r="AB100" s="3"/>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -17904,7 +18204,7 @@
       <c r="AA101" s="38"/>
       <c r="AB101" s="3"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -17931,7 +18231,7 @@
       <c r="AA102" s="38"/>
       <c r="AB102" s="3"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -17958,7 +18258,7 @@
       <c r="AA103" s="38"/>
       <c r="AB103" s="3"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -17985,7 +18285,7 @@
       <c r="AA104" s="38"/>
       <c r="AB104" s="3"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -18012,7 +18312,7 @@
       <c r="AA105" s="38"/>
       <c r="AB105" s="3"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -18039,7 +18339,7 @@
       <c r="AA106" s="38"/>
       <c r="AB106" s="3"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -18066,7 +18366,7 @@
       <c r="AA107" s="38"/>
       <c r="AB107" s="3"/>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -18093,7 +18393,7 @@
       <c r="AA108" s="38"/>
       <c r="AB108" s="3"/>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -18120,7 +18420,7 @@
       <c r="AA109" s="38"/>
       <c r="AB109" s="3"/>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -18147,7 +18447,7 @@
       <c r="AA110" s="38"/>
       <c r="AB110" s="3"/>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -18174,7 +18474,7 @@
       <c r="AA111" s="38"/>
       <c r="AB111" s="3"/>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -23875,7 +24175,7 @@
   <sortState ref="A2:BE99">
     <sortCondition ref="A2:A99"/>
   </sortState>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
       <formula1>"interpunc,word,mixed,no"</formula1>
     </dataValidation>
@@ -23896,6 +24196,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X48 K34:K241 X43 K277:K322 R100:R322 R27 R1:R2 K1:K32 X69 AA1:AA1048576 X1:X2 R79:R80 AP1:AP16 X5 X16:X17 R83 R48 R5 R69 X79:X80 M1:M1048576 X83 R16:R17 R43 X100:X322 AZ49:AZ1048576 AY48 X27 Y1:Y1048576 O1:O1048576 R24:R25 X24:X25 AZ1:AZ47 AP18:AP1048576 AR1:AR1048576 AN1:AN1048576">
       <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF1:BF1048576">
+      <formula1>"one,more,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
